--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsacid-my.sharepoint.com/personal/05211940000104_mahasiswa_integra_its_ac_id/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Kuliah_EP18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{8BF25E18-A971-9B4B-B9BF-15252194ACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E521704-9932-491A-8CDD-C3ADD9A3EC4F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65200D7D-5B35-4849-B94B-7270F51F45F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="-4080" windowWidth="34460" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="156">
   <si>
     <t>https://intip.in/SurveiPerilakuBelajar</t>
   </si>
@@ -446,6 +446,60 @@
   </si>
   <si>
     <t>naufal sunandar</t>
+  </si>
+  <si>
+    <t>Podomoro University</t>
+  </si>
+  <si>
+    <t>Video Pembelajaran, E-Book, Record an kelas (audio)</t>
+  </si>
+  <si>
+    <t>Unair</t>
+  </si>
+  <si>
+    <t>Buku Cetak, Catatan selama kelas</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Sore hari, malam hari</t>
+  </si>
+  <si>
+    <t>Pagi hari, Siang hari, Sore hari, Malam hari</t>
+  </si>
+  <si>
+    <t>Video Pembelajaran, Rekaman Kelas, Buku Cetak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amelia </t>
+  </si>
+  <si>
+    <t>STIS</t>
+  </si>
+  <si>
+    <t>Zahrin</t>
+  </si>
+  <si>
+    <t>Imanuel</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Ajeng</t>
+  </si>
+  <si>
+    <t>Naqiya</t>
+  </si>
+  <si>
+    <t>Rida</t>
+  </si>
+  <si>
+    <t>Ameilia</t>
+  </si>
+  <si>
+    <t>Afriani</t>
   </si>
 </sst>
 </file>
@@ -455,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -521,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -548,6 +602,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,26 +822,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="22" width="21.5" customWidth="1"/>
+    <col min="23" max="23" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -862,7 +918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>44468.825209733797</v>
       </c>
@@ -940,7 +996,7 @@
       </c>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>44468.825570462963</v>
       </c>
@@ -1017,7 +1073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>44468.825684224532</v>
       </c>
@@ -1094,7 +1150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>44468.827277627315</v>
       </c>
@@ -1171,7 +1227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>44468.831152974541</v>
       </c>
@@ -1248,7 +1304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>44468.83213174768</v>
       </c>
@@ -1325,7 +1381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>44468.833424652781</v>
       </c>
@@ -1402,7 +1458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>44468.833866111112</v>
       </c>
@@ -1479,7 +1535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>44468.834588842597</v>
       </c>
@@ -1556,7 +1612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>44468.835350682872</v>
       </c>
@@ -1633,7 +1689,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>44468.837659814817</v>
       </c>
@@ -1710,7 +1766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>44468.83775752315</v>
       </c>
@@ -1787,7 +1843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>44468.837888761569</v>
       </c>
@@ -1864,7 +1920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>44468.842146030089</v>
       </c>
@@ -1941,7 +1997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>44468.846700393522</v>
       </c>
@@ -2018,7 +2074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>44468.847188321757</v>
       </c>
@@ -2095,7 +2151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>44468.85684576389</v>
       </c>
@@ -2172,7 +2228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>44468.857270127315</v>
       </c>
@@ -2249,7 +2305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>44468.859360335649</v>
       </c>
@@ -2326,7 +2382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>44468.868459675927</v>
       </c>
@@ -2403,7 +2459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>44468.868985914349</v>
       </c>
@@ -2480,7 +2536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>44468.90539482639</v>
       </c>
@@ -2557,7 +2613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>44468.905841504631</v>
       </c>
@@ -2634,7 +2690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>44468.946400451387</v>
       </c>
@@ -2711,7 +2767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>44468.957986689813</v>
       </c>
@@ -2788,7 +2844,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>44469.352775497682</v>
       </c>
@@ -2865,7 +2921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>44469.689181828704</v>
       </c>
@@ -2942,7 +2998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>44469.853169652779</v>
       </c>
@@ -3019,7 +3075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>44469.866439606485</v>
       </c>
@@ -3096,7 +3152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>44470.397325300924</v>
       </c>
@@ -3173,7 +3229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>44472.805389340283</v>
       </c>
@@ -3250,7 +3306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>44473.807312407407</v>
       </c>
@@ -3327,7 +3383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>44473.808903784724</v>
       </c>
@@ -3404,7 +3460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>44473.812375162037</v>
       </c>
@@ -3481,7 +3537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>44473.813955833335</v>
       </c>
@@ -3558,7 +3614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>44473.816767789351</v>
       </c>
@@ -3635,7 +3691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>44473.817432916665</v>
       </c>
@@ -3712,7 +3768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>44473.81862662037</v>
       </c>
@@ -3789,7 +3845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>44473.819283715275</v>
       </c>
@@ -3866,7 +3922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>44473.822724502315</v>
       </c>
@@ -3943,7 +3999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>44473.823658263893</v>
       </c>
@@ -4018,6 +4074,776 @@
       </c>
       <c r="Y42" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="12">
+        <v>44473.834872152773</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V43" s="13">
+        <v>4</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y43" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12">
+        <v>44473.845936076388</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="13">
+        <v>5</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" s="13">
+        <v>4</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y44" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="12">
+        <v>44473.879524988428</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="13">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V45" s="13">
+        <v>3</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="12">
+        <v>44473.899593715279</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="13">
+        <v>5</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" s="13">
+        <v>3</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X46" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y46" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="12">
+        <v>44473.900390763883</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="13">
+        <v>5</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U47" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V47" s="13">
+        <v>5</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X47" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y47" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12">
+        <v>44473.936665324072</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="13">
+        <v>5</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V48" s="13">
+        <v>2</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y48" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="12">
+        <v>44473.94918974537</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="13">
+        <v>5</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U49" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V49" s="13">
+        <v>3</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y49" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12">
+        <v>44474.278154085652</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="13">
+        <v>5</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U50" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V50" s="13">
+        <v>4</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y50" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="12">
+        <v>44474.299977060189</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="13">
+        <v>5</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S51" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V51" s="13">
+        <v>2</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X51" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y51" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12">
+        <v>44475.45355633102</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="13">
+        <v>3</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U52" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V52" s="13">
+        <v>4</v>
+      </c>
+      <c r="W52" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X52" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y52" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4036,18 +4862,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="24">
+    <row r="4" spans="3:4" ht="24" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>137</v>
       </c>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Kuliah_EP18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65200D7D-5B35-4849-B94B-7270F51F45F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A710E49F-7BE0-B444-B0A1-C361717FA435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="145">
   <si>
     <t>https://intip.in/SurveiPerilakuBelajar</t>
   </si>
@@ -460,46 +460,13 @@
     <t>Buku Cetak, Catatan selama kelas</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Sore hari, malam hari</t>
-  </si>
-  <si>
-    <t>Pagi hari, Siang hari, Sore hari, Malam hari</t>
-  </si>
-  <si>
-    <t>Video Pembelajaran, Rekaman Kelas, Buku Cetak</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amelia </t>
   </si>
   <si>
-    <t>STIS</t>
-  </si>
-  <si>
     <t>Zahrin</t>
   </si>
   <si>
     <t>Imanuel</t>
-  </si>
-  <si>
-    <t>Hilda</t>
-  </si>
-  <si>
-    <t>Ajeng</t>
-  </si>
-  <si>
-    <t>Naqiya</t>
-  </si>
-  <si>
-    <t>Rida</t>
-  </si>
-  <si>
-    <t>Ameilia</t>
-  </si>
-  <si>
-    <t>Afriani</t>
   </si>
 </sst>
 </file>
@@ -824,9 +791,9 @@
   </sheetPr>
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4081,7 +4048,7 @@
         <v>44473.834872152773</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>79</v>
@@ -4158,7 +4125,7 @@
         <v>44473.845936076388</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>79</v>
@@ -4235,7 +4202,7 @@
         <v>44473.879524988428</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>26</v>
@@ -4308,543 +4275,193 @@
       </c>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="12">
-        <v>44473.899593715279</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="13">
-        <v>5</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q46" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V46" s="13">
-        <v>3</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y46" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12">
-        <v>44473.900390763883</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="13">
-        <v>5</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M47" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N47" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q47" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R47" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S47" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V47" s="13">
-        <v>5</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X47" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y47" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="12">
-        <v>44473.936665324072</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="13">
-        <v>5</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N48" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R48" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S48" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T48" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U48" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V48" s="13">
-        <v>2</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X48" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y48" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="12">
-        <v>44473.94918974537</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="13">
-        <v>5</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N49" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V49" s="13">
-        <v>3</v>
-      </c>
-      <c r="W49" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X49" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y49" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12">
-        <v>44474.278154085652</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="13">
-        <v>5</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P50" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S50" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U50" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V50" s="13">
-        <v>4</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X50" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y50" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12">
-        <v>44474.299977060189</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="13">
-        <v>5</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O51" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P51" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q51" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R51" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S51" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T51" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U51" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V51" s="13">
-        <v>2</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y51" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="12">
-        <v>44475.45355633102</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="13">
-        <v>3</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P52" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q52" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R52" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V52" s="13">
-        <v>4</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y52" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
